--- a/python/lin/pert Error t1=6 t2=4.xlsx
+++ b/python/lin/pert Error t1=6 t2=4.xlsx
@@ -470,16 +470,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5.02</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.75e-07</v>
+        <v>-16.4</v>
       </c>
       <c r="E2" t="n">
-        <v>5.99</v>
+        <v>5.19</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.224</v>
+        <v>-13.6</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.52e-05</v>
+        <v>-25.9</v>
       </c>
       <c r="E3" t="n">
-        <v>4.01</v>
+        <v>2.91</v>
       </c>
       <c r="F3" t="n">
-        <v>0.295</v>
+        <v>-27.2</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001</v>
+        <v>7.499999999999999e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001</v>
+        <v>9.1e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.76e-06</v>
+        <v>21.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000101</v>
+        <v>9.04e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>1.19</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +539,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.08e-08</v>
+        <v>-0.00536</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.000487</v>
+        <v>-0.00369</v>
       </c>
     </row>
     <row r="6">
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.15e-08</v>
+        <v>5010000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>360000</v>
+        <v>3480000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1e-10</v>
+        <v>25500</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1840</v>
+        <v>17800</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
